--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Rspo1</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +537,10 @@
         <v>0.351263</v>
       </c>
       <c r="I2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,16 +549,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02035233333333334</v>
+        <v>0.02035233333333333</v>
       </c>
       <c r="N2">
-        <v>0.06105700000000001</v>
+        <v>0.061057</v>
       </c>
       <c r="O2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="P2">
-        <v>0.3560714743926193</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="Q2">
         <v>0.002383007221222222</v>
@@ -570,10 +567,10 @@
         <v>0.021447064991</v>
       </c>
       <c r="S2">
-        <v>0.1515102411929143</v>
+        <v>0.128389957923202</v>
       </c>
       <c r="T2">
-        <v>0.1515102411929143</v>
+        <v>0.128389957923202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,164 +599,40 @@
         <v>0.351263</v>
       </c>
       <c r="I3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03680566666666667</v>
+        <v>0.1381673333333333</v>
       </c>
       <c r="N3">
-        <v>0.110417</v>
+        <v>0.414502</v>
       </c>
       <c r="O3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="P3">
-        <v>0.6439285256073807</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="Q3">
-        <v>0.004309489630111111</v>
+        <v>0.01617769066955555</v>
       </c>
       <c r="R3">
-        <v>0.038785406671</v>
+        <v>0.145599216026</v>
       </c>
       <c r="S3">
-        <v>0.27399489496369</v>
+        <v>0.871610042076798</v>
       </c>
       <c r="T3">
-        <v>0.27399489496369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.474257</v>
-      </c>
-      <c r="I4">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J4">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02035233333333334</v>
-      </c>
-      <c r="N4">
-        <v>0.06105700000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.3560714743926193</v>
-      </c>
-      <c r="P4">
-        <v>0.3560714743926193</v>
-      </c>
-      <c r="Q4">
-        <v>0.003217412183222222</v>
-      </c>
-      <c r="R4">
-        <v>0.028956709649</v>
-      </c>
-      <c r="S4">
-        <v>0.204561233199705</v>
-      </c>
-      <c r="T4">
-        <v>0.204561233199705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.474257</v>
-      </c>
-      <c r="I5">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J5">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.03680566666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.110417</v>
-      </c>
-      <c r="O5">
-        <v>0.6439285256073807</v>
-      </c>
-      <c r="P5">
-        <v>0.6439285256073807</v>
-      </c>
-      <c r="Q5">
-        <v>0.005818448352111111</v>
-      </c>
-      <c r="R5">
-        <v>0.052366035169</v>
-      </c>
-      <c r="S5">
-        <v>0.3699336306436907</v>
-      </c>
-      <c r="T5">
-        <v>0.3699336306436907</v>
+        <v>0.871610042076798</v>
       </c>
     </row>
   </sheetData>
